--- a/trunk/toolbox_data/species/translate_to_nordicmicroalgae_species.xlsx
+++ b/trunk/toolbox_data/species/translate_to_nordicmicroalgae_species.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="9740" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="translate_sizeclasses_to_taxa_u" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>PEG taxon name</t>
   </si>
@@ -436,6 +436,18 @@
   </si>
   <si>
     <t>Bacillariophyceae</t>
+  </si>
+  <si>
+    <t>Unicells</t>
+  </si>
+  <si>
+    <t>Flagellates</t>
+  </si>
+  <si>
+    <t>Unidentified coccoid eukaryots</t>
+  </si>
+  <si>
+    <t>Unidentified flagellated eukaryots</t>
   </si>
 </sst>
 </file>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1376,6 +1388,22 @@
         <v>138</v>
       </c>
     </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
